--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,108 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>least</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -151,127 +154,136 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>opening</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>media</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -757,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>0.7368421052631579</v>
@@ -1054,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,16 +1137,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,31 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>0.6842105263157895</v>
@@ -1254,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1272,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.3043478260869565</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,16 +1737,16 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.2777777777777778</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.273224043715847</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L24">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>798</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5797101449275363</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C25">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.2692307692307692</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5454545454545454</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.2372881355932203</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.2222222222222222</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1966,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5294117647058824</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +1984,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.1951219512195122</v>
+        <v>0.2</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.1846153846153846</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -2046,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,10 +2069,10 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.180327868852459</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.1789473684210526</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.1739130434782609</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2216,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.1707317073170732</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L33">
         <v>7</v>
@@ -2246,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3846153846153846</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34">
         <v>0.1481481481481481</v>
@@ -2325,28 +2337,28 @@
         <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="L35">
-        <v>8</v>
-      </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,38 +2366,38 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1025641025641026</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L36">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="M36">
         <v>8</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>70</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
       <c r="N36">
         <v>1</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,37 +2416,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.04026845637583892</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.09411764705882353</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,21 +2458,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.05369127516778523</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0.06</v>
+      </c>
+      <c r="F38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>282</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.06569343065693431</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2472,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.0572289156626506</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2498,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.0530035335689046</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2524,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>268</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.04761904761904762</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2550,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>300</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.04444444444444445</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2576,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.04058441558441558</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2602,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>591</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.03812316715542522</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2628,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>328</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.03201024327784891</v>
+        <v>0.03713188220230474</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2654,21 +2690,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.02419354838709677</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2680,7 +2716,85 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1694</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47">
+        <v>0.02826855123674912</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48">
+        <v>0.02639296187683285</v>
+      </c>
+      <c r="L48">
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49">
+        <v>0.02188940092165899</v>
+      </c>
+      <c r="L49">
+        <v>38</v>
+      </c>
+      <c r="M49">
+        <v>38</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
